--- a/Results/results_clustered.xlsx
+++ b/Results/results_clustered.xlsx
@@ -12,17 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">Tobs</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
     <t xml:space="preserve">known</t>
   </si>
   <si>
@@ -45,6 +48,15 @@
   </si>
   <si>
     <t xml:space="preserve">selective_cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selective_mode2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selective_mode2_cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_holds</t>
   </si>
 </sst>
 </file>
@@ -410,6 +422,15 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -421,29 +442,170 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.054</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.06</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.064</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.052</v>
+      <c r="N3" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B5" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.041</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_clustered.xlsx
+++ b/Results/results_clustered.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">N</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">overall_holds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_fails</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,1062 @@
         <v>0.041</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>120</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>120</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>160</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>160</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>160</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>160</v>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>80</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>80</v>
+      </c>
+      <c r="B15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>80</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>80</v>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>80</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>80</v>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>80</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>80</v>
+      </c>
+      <c r="B23" t="n">
+        <v>200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>80</v>
+      </c>
+      <c r="B24" t="n">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>80</v>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.673</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>80</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>80</v>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.567</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.763</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>80</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>80</v>
+      </c>
+      <c r="B29" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
